--- a/output/zaluski/2023/sheets/year_2023.xlsx
+++ b/output/zaluski/2023/sheets/year_2023.xlsx
@@ -481,159 +481,135 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>67.51935483870967</v>
+        <v>67.62501642475135</v>
       </c>
       <c r="C2" t="n">
-        <v>60.7</v>
+        <v>61.17630084987248</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>66.69285714285715</v>
+        <v>66.75751980252689</v>
       </c>
       <c r="C3" t="n">
-        <v>59.68571428571429</v>
+        <v>60.36046785995003</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>67.32903225806452</v>
+        <v>67.50552522085444</v>
       </c>
       <c r="C4" t="n">
-        <v>60.60967741935483</v>
+        <v>60.94363366366959</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>68.63000000000001</v>
+        <v>68.70841115206477</v>
       </c>
       <c r="C5" t="n">
-        <v>59.17666666666666</v>
+        <v>61.68525294569157</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>68.8967741935484</v>
+        <v>68.98451052882015</v>
       </c>
       <c r="C6" t="n">
-        <v>61.81290322580647</v>
+        <v>62.45470694192016</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>68.81</v>
+        <v>69.04053018875102</v>
       </c>
       <c r="C7" t="n">
-        <v>62.33666666666667</v>
+        <v>62.75120729008496</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>68.36451612903225</v>
+        <v>68.38784344750563</v>
       </c>
       <c r="C8" t="n">
-        <v>61.16451612903226</v>
+        <v>61.43416007081364</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>69.08709677419355</v>
+        <v>69.14913671687216</v>
       </c>
       <c r="C9" t="n">
-        <v>62.7</v>
+        <v>63.07751617223344</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>57.79666666666666</v>
+        <v>69.4295745883462</v>
       </c>
       <c r="C10" t="n">
-        <v>55.47333333333334</v>
+        <v>63.40900835315477</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>68.82580645161292</v>
+        <v>68.92914111828981</v>
       </c>
       <c r="C11" t="n">
-        <v>60.96129032258065</v>
+        <v>61.45405171243</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>68.41333333333334</v>
+        <v>68.57654115741123</v>
       </c>
       <c r="C12" t="n">
-        <v>61.46999999999998</v>
+        <v>62.42538528313248</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>67.84516129032258</v>
+        <v>68.00246762721014</v>
       </c>
       <c r="C13" t="n">
-        <v>60.48064516129031</v>
+        <v>61.5408813428147</v>
       </c>
     </row>
   </sheetData>
